--- a/data/trans_dic/P16A06-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A06-Habitat-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.005596406949756172</v>
+        <v>0.006682180032088815</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.009956549385155498</v>
+        <v>0.00987680232679768</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01477909648272712</v>
+        <v>0.01432758988321376</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.04860817206255286</v>
+        <v>0.04842554563978074</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.00920079435541619</v>
+        <v>0.009715850109218507</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.03367882069819227</v>
+        <v>0.03335318469981044</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.06482181963020088</v>
+        <v>0.06474635360677958</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1031744264389024</v>
+        <v>0.1034419747291678</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.009124937077868033</v>
+        <v>0.0096414348740164</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.02500973243364473</v>
+        <v>0.02486356826949946</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.04370738652339336</v>
+        <v>0.04436943366889537</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.08144096693688051</v>
+        <v>0.08154796391393697</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02290039540972976</v>
+        <v>0.02290605211924174</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.02975343213404511</v>
+        <v>0.02962134304392657</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.0384880298794234</v>
+        <v>0.03777868516930105</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.08548154609770828</v>
+        <v>0.08821490308797626</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.0282438498931453</v>
+        <v>0.02884051867541207</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.0688812442580625</v>
+        <v>0.06714173318127759</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1087207393965055</v>
+        <v>0.1096187125536108</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1381557191298442</v>
+        <v>0.1416246849040627</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.02185684411068969</v>
+        <v>0.02147259474085465</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.04335184248588986</v>
+        <v>0.04369607475531385</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.06995664826792537</v>
+        <v>0.06811463394157145</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1067835467291855</v>
+        <v>0.1079365467337512</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.04101945391226236</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.06585552976454173</v>
+        <v>0.06585552976454172</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.009593920884918573</v>
+        <v>0.00986459856248984</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.005306616682688832</v>
+        <v>0.005435875865359976</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01614577656149873</v>
+        <v>0.01641308234007338</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.02866734596670798</v>
+        <v>0.02785227587920361</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.02283204717200279</v>
+        <v>0.0225317588434648</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.06021768852952009</v>
+        <v>0.0594444353679333</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.04416907348604026</v>
+        <v>0.04332842733174554</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.08012673699513807</v>
+        <v>0.07940493433625886</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01855890950059957</v>
+        <v>0.01841333121831015</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.03541565063128092</v>
+        <v>0.0349874922531971</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.03292068021173661</v>
+        <v>0.03187561068727834</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.05706688259787387</v>
+        <v>0.05677380913291996</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02667339255818267</v>
+        <v>0.02682897256141864</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01919994631647725</v>
+        <v>0.01973747359465378</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03652360445025958</v>
+        <v>0.0362539200079017</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.05086652417207815</v>
+        <v>0.05135485326114826</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.04678378883557918</v>
+        <v>0.04568370351638482</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.09431246265413627</v>
+        <v>0.09475688436537147</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.07335403400344898</v>
+        <v>0.07376383713446101</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1102404393209143</v>
+        <v>0.1093330737743186</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.03221891927968942</v>
+        <v>0.03376445618005831</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.05355824064240332</v>
+        <v>0.05454211780216868</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.05115842287903325</v>
+        <v>0.05100015647789157</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.0768305036709909</v>
+        <v>0.07606743375550834</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.0241267965214313</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.04925591507379165</v>
+        <v>0.04925591507379164</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.05498667533192655</v>
@@ -957,7 +957,7 @@
         <v>0.07018710031778208</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.08964428285536249</v>
+        <v>0.08964428285536252</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.03681248139962046</v>
@@ -969,7 +969,7 @@
         <v>0.04753654841209878</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.06956112858585353</v>
+        <v>0.06956112858585352</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.00908456939053387</v>
+        <v>0.009141327632597064</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01328726791381206</v>
+        <v>0.0124231792316753</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01363928383365228</v>
+        <v>0.01371095225409192</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.03566048050281431</v>
+        <v>0.03603663528057046</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.04057232705690159</v>
+        <v>0.03861247338793262</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.03711228048568333</v>
+        <v>0.03829649892365147</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.05431030587781663</v>
+        <v>0.05231697148843212</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.07203621186466524</v>
+        <v>0.07383864322376218</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.0281754856090257</v>
+        <v>0.02828516421477217</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.02968511946005998</v>
+        <v>0.02975066575570535</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.03735300180598317</v>
+        <v>0.03717718844791346</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.05848972075526599</v>
+        <v>0.05802453513685704</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03222378823125739</v>
+        <v>0.03162041707308858</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.04185531690108061</v>
+        <v>0.04257163943087471</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03773436262146421</v>
+        <v>0.03821992336692902</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.06729619562506282</v>
+        <v>0.06820543772430426</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.0728846271720818</v>
+        <v>0.07255824776261752</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.07256070694004255</v>
+        <v>0.07397252201954015</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.09159987128039759</v>
+        <v>0.09037167153289426</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1071349346654703</v>
+        <v>0.1073750736009946</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.04807106138597549</v>
+        <v>0.04847589812234727</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.05235936195466697</v>
+        <v>0.05154219479659838</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.06008140615186831</v>
+        <v>0.05918607734854831</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.08098148228119675</v>
+        <v>0.08148058998232549</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.06262357363799799</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.08737234584444387</v>
+        <v>0.08737234584444391</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02026057197759276</v>
+        <v>0.02055804244065953</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01868640310933007</v>
+        <v>0.01973972085470405</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02213161180962405</v>
+        <v>0.02160616264967602</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.04574250397650637</v>
+        <v>0.04529541382944961</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.04406464364486867</v>
+        <v>0.04449700520880432</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.05117085154136677</v>
+        <v>0.05026736402697616</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.07270612093150541</v>
+        <v>0.07134422950570853</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.09958732343002871</v>
+        <v>0.09813157740954803</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.03589704487242451</v>
+        <v>0.03629929416868014</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.03987019436763403</v>
+        <v>0.04001608941321344</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.05254414144061809</v>
+        <v>0.05064789773272194</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.07692358098534002</v>
+        <v>0.07634631952051583</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04150310288621919</v>
+        <v>0.04135262239935836</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04416862457390935</v>
+        <v>0.04464500825995571</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04443604669883953</v>
+        <v>0.0445827688014484</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.07442192318874712</v>
+        <v>0.07320971740917123</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.0733405511488283</v>
+        <v>0.07456857562673218</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.08379335068404431</v>
+        <v>0.08002478878933894</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1123431341330374</v>
+        <v>0.1115625135743548</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1294236977750258</v>
+        <v>0.1299671644001874</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.05386043946592905</v>
+        <v>0.05356796726510449</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.05941075622151736</v>
+        <v>0.05935616405486104</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.07611824111456272</v>
+        <v>0.07369698092440642</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.09885989859305062</v>
+        <v>0.09796332536244869</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01509827393998887</v>
+        <v>0.01538313300508612</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.0155976375500699</v>
+        <v>0.01542652395770602</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02076918078736823</v>
+        <v>0.02105974645087524</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.0446093266404025</v>
+        <v>0.04452955782502468</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.03502399801350245</v>
+        <v>0.03518141311012241</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.05430055052115479</v>
+        <v>0.05448585122677276</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.06645476528252289</v>
+        <v>0.06666273048603999</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.09615546920544037</v>
+        <v>0.09641463198344308</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.02674597882471792</v>
+        <v>0.02668818136083243</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.03727061587045739</v>
+        <v>0.03713493409252261</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.04620125524850467</v>
+        <v>0.04596183005750792</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.07309293661485501</v>
+        <v>0.07321867437972497</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.02503087878076363</v>
+        <v>0.02548867461731896</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.02633954213424029</v>
+        <v>0.02628605011142104</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.03303403484778396</v>
+        <v>0.03259583594031968</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.05950962741388288</v>
+        <v>0.05903809616286451</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.04943968517215509</v>
+        <v>0.05000566053252023</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.07163675623897342</v>
+        <v>0.07128453491620509</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.08508730626791236</v>
+        <v>0.08531159529380468</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1129229198503146</v>
+        <v>0.1122552625935198</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.03545576726012677</v>
+        <v>0.03549653458647305</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.04723736166820097</v>
+        <v>0.04796434267501914</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.05711860189978623</v>
+        <v>0.05686388005200057</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.08364195866866291</v>
+        <v>0.08411068898913487</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>3878</v>
+        <v>4631</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>6985</v>
+        <v>6929</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>9973</v>
+        <v>9668</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>33550</v>
+        <v>33424</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>6333</v>
+        <v>6688</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>23317</v>
+        <v>23092</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>43615</v>
+        <v>43564</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>75604</v>
+        <v>75800</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>12605</v>
+        <v>13318</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>34861</v>
+        <v>34658</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>58902</v>
+        <v>59794</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>115890</v>
+        <v>116043</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>15870</v>
+        <v>15874</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>20874</v>
+        <v>20782</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>25972</v>
+        <v>25493</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>59001</v>
+        <v>60887</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>19442</v>
+        <v>19852</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>47689</v>
+        <v>46485</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>73152</v>
+        <v>73756</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>101238</v>
+        <v>103780</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>30192</v>
+        <v>29661</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>60429</v>
+        <v>60909</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>94276</v>
+        <v>91794</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>151953</v>
+        <v>153593</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>9227</v>
+        <v>9488</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>5391</v>
+        <v>5522</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>16508</v>
+        <v>16781</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>30070</v>
+        <v>29215</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>22110</v>
+        <v>21820</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>61890</v>
+        <v>61096</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>46065</v>
+        <v>45188</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>85746</v>
+        <v>84973</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>35822</v>
+        <v>35541</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>72378</v>
+        <v>71503</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>67993</v>
+        <v>65834</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>120927</v>
+        <v>120306</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>25654</v>
+        <v>25804</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>19505</v>
+        <v>20051</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>37343</v>
+        <v>37067</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>53355</v>
+        <v>53867</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>45305</v>
+        <v>44240</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>96932</v>
+        <v>97389</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>76502</v>
+        <v>76929</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>117971</v>
+        <v>117000</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>62189</v>
+        <v>65172</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>109455</v>
+        <v>111466</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>105660</v>
+        <v>105333</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>162807</v>
+        <v>161190</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>6164</v>
+        <v>6202</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>10052</v>
+        <v>9399</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>10360</v>
+        <v>10414</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>28603</v>
+        <v>28904</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>27745</v>
+        <v>26405</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>28810</v>
+        <v>29729</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>42634</v>
+        <v>41069</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>58418</v>
+        <v>59880</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>38385</v>
+        <v>38534</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>45502</v>
+        <v>45602</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>57694</v>
+        <v>57423</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>94346</v>
+        <v>93596</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>21864</v>
+        <v>21455</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>31665</v>
+        <v>32207</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>28661</v>
+        <v>29030</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>53977</v>
+        <v>54707</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>49841</v>
+        <v>49618</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>56328</v>
+        <v>57424</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>71907</v>
+        <v>70943</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>86882</v>
+        <v>87076</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>65490</v>
+        <v>66041</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>80258</v>
+        <v>79005</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>92800</v>
+        <v>91417</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>130626</v>
+        <v>131431</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>19090</v>
+        <v>19370</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>17639</v>
+        <v>18633</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>20750</v>
+        <v>20257</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>45288</v>
+        <v>44845</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>45766</v>
+        <v>46215</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>53666</v>
+        <v>52719</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>75889</v>
+        <v>74468</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>111242</v>
+        <v>109616</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>71106</v>
+        <v>71903</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>79449</v>
+        <v>79740</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>104108</v>
+        <v>100351</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>162085</v>
+        <v>160869</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>39105</v>
+        <v>38963</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>41692</v>
+        <v>42142</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>41662</v>
+        <v>41799</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>73682</v>
+        <v>72482</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>76172</v>
+        <v>77448</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>87879</v>
+        <v>83927</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>117261</v>
+        <v>116447</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>144570</v>
+        <v>145177</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>106689</v>
+        <v>106109</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>118388</v>
+        <v>118279</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>150817</v>
+        <v>146019</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>208307</v>
+        <v>206418</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>49455</v>
+        <v>50388</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>53312</v>
+        <v>52727</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>70498</v>
+        <v>71484</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>157528</v>
+        <v>157246</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>118353</v>
+        <v>118885</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>192504</v>
+        <v>193161</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>235552</v>
+        <v>236289</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>358746</v>
+        <v>359712</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>177987</v>
+        <v>177602</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>259519</v>
+        <v>258574</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>320586</v>
+        <v>318924</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>530813</v>
+        <v>531726</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>81989</v>
+        <v>83489</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>90027</v>
+        <v>89844</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>112129</v>
+        <v>110642</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>210145</v>
+        <v>208480</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>167066</v>
+        <v>168979</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>253964</v>
+        <v>252715</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>301596</v>
+        <v>302391</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>421303</v>
+        <v>418812</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>235948</v>
+        <v>236220</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>328918</v>
+        <v>333981</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>396340</v>
+        <v>394572</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>607422</v>
+        <v>610826</v>
       </c>
     </row>
     <row r="24">
